--- a/data/long_razon/P24_6-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_6-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>119,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 69,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,9; 249,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,69; 16,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 98,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 137,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 31,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 60,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,54; 160,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 13,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-24,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,12; -1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,13; 97,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 48,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,9; -5,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 59,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 15,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,56; -10,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 65,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 24,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 14,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 88,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 64,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 5,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 38,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 23,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 52,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 34,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 2,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,58; 90,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 32,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 1,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 48,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 10,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,51; 58,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 16,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_6-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_6-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.2502086880415286</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.194752535982271</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1746389732679112</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.821438406493466</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.889418074714098</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.119059431934637</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.07779551224207988</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.380862441288609</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.5328616234279216</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>1.155700220988072</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1281276656595648</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.9234456764007717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.2505770447880401</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.4391774005357175</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4599789732256204</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.6868783534526119</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.1662472971494351</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.3767135148473204</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3295835344295139</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.08800054888366068</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.07366578946303246</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.5253460955409814</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3271475188417147</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.4147805089458573</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.019332530208006</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.831624690847687</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1411425163923254</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.300313752241371</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.083267110670939</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.426272276814596</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.2312264472269656</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.28435914721069</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.190589256970765</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.972254152553389</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1130605996413538</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.971626937275785</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.000224868755877327</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2981444825765844</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2102340297885859</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3912463517453347</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2300384752235242</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2742655164702626</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.05679128184338775</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.1110082825766465</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.131538579433389</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.2864655475424569</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.07646422535586145</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.2504859359004648</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3297527934975772</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.06929039599453053</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.06370445998031156</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.06553774834647723</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4091028909220855</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.01055497585478445</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2444733297185862</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1347068437621542</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.292167079900261</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.02327621941049157</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.08525109985491595</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.04062602862469023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.3685788530777698</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.783418397165805</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5526985146300287</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.8800332253505949</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.01550061534168166</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6574016865507251</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1371460850903416</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3898947589014238</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.08775020390220577</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.5577488228373556</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.2839066640801861</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.532124625217557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +931,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.05161822094122099</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2671447203175436</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3051569242249656</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1878318811412206</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.05331049629559333</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1012175694397374</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.0031394066561067</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.04011472297122666</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.05257312492150798</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1820109716521574</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1427323922975565</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.08079950938941782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3672671743923488</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.08564907740959354</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.04742850777972347</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4331080334865072</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2751815360641473</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.15541104231903</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.189961424767852</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.1744997385226258</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2588702581299388</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.02250523815629549</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.03801941459610738</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2623565171013782</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.4009380269555673</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.7020310487393424</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6702951740086714</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.05638633373914337</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.2162987366964533</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.4323896879964849</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.2350155160176132</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.3416849871237376</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1643307938307279</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.4704412991895304</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.3329261341161512</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.1168329567110566</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.02245612994402611</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4086245121359994</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1419644075298194</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3084337167783599</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.04342806487455633</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3286122961569546</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.04102721121881246</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1355233781395977</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.01388489888569278</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.3684614646244222</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.04901819864802507</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.2206441287156157</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.1962505453363312</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1334940383776103</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.03662080946159883</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.07774173219659011</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1941803260491776</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1275801944582404</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1562702197720147</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.03764523816209769</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1525906966226808</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.1854909621247516</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.06037736557133879</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.07004865057655049</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.2675737742718639</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7410834352878561</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3204406879006941</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6530261325057434</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.142734640193462</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5698274044114175</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.08521283940472649</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3416456649117754</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.1331575524749003</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5660554979957055</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1545112382651843</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.4116364530091763</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
